--- a/outputs/ML_Results/carown_LR_new/Germany_other.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Germany_other.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="summ20" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ11" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ7" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.133635662950607</v>
+        <v>-1.117148762607284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4268648469579076</v>
+        <v>0.4362467588155443</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.44441926161475</v>
+        <v>1.394783668395192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2875894166680212</v>
+        <v>0.3074860698414214</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.479817503559013</v>
+        <v>1.558253646153427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2787376873656326</v>
+        <v>0.2570398379725967</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2480847357727671</v>
+        <v>0.1926696071383721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8553029428614098</v>
+        <v>0.888072919419381</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4850281509212243</v>
+        <v>0.4863526376271235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7215223299884164</v>
+        <v>0.7224711981235672</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8438855936749935</v>
+        <v>0.7166765073871956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5368435125243757</v>
+        <v>0.6020462756541735</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03050870919856478</v>
+        <v>-0.0320344781887736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6725982894338238</v>
+        <v>0.6602162893497803</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005028926585787996</v>
+        <v>0.000498979601052286</v>
       </c>
       <c r="C9" t="n">
-        <v>2.646387263195056e-62</v>
+        <v>3.156410110738498e-61</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007700524490926339</v>
+        <v>0.007499172612067818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004382373113078357</v>
+        <v>0.005388989251793139</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1627061186052072</v>
+        <v>-0.1288534062168053</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02242217406907168</v>
+        <v>0.06865595001492752</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7666489471538843</v>
+        <v>0.8124482680849062</v>
       </c>
       <c r="C12" t="n">
-        <v>1.102113765065416e-12</v>
+        <v>3.244998230779668e-14</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2489417233481047</v>
+        <v>0.3356948233495763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07356886406622107</v>
+        <v>0.01519405286087772</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.468816622944068e-05</v>
+        <v>-5.316371584416206e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004558758062402588</v>
+        <v>0.0007739826414289171</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.013591879737314e-09</v>
+        <v>-1.266953226243866e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7748363485820939</v>
+        <v>0.4716294682805071</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01242156627172655</v>
+        <v>0.003545403414474364</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6332958820843728</v>
+        <v>0.8916229604075869</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08526432543871665</v>
+        <v>0.08169650150776192</v>
       </c>
       <c r="C17" t="n">
-        <v>1.501266083822955e-06</v>
+        <v>3.5953503105376e-06</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.285746690564886</v>
+        <v>-1.582886157899407</v>
       </c>
       <c r="C18" t="n">
-        <v>6.325701189420247e-05</v>
+        <v>5.597140378638963e-07</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00712570457230956</v>
+        <v>-0.008150771289796573</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07826538229425045</v>
+        <v>0.04450598889875623</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003413298697247751</v>
+        <v>-0.003120981629948927</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1499113138403376</v>
+        <v>0.1868312967403605</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5031636052497989</v>
+        <v>0.6446074959350636</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1836357986727649</v>
+        <v>0.09058246734955486</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03155240082784378</v>
+        <v>-0.06378163728564111</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9223236191863869</v>
+        <v>0.8456486697656563</v>
       </c>
     </row>
     <row r="23">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-6.954333034444357e-05</v>
+        <v>-3.290613451586743e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09682497904084426</v>
+        <v>0.4329333714952122</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5271171094470126</v>
+        <v>-1.087890645353082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7511334618279731</v>
+        <v>0.4478088854663322</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.921179212672901</v>
+        <v>1.362270924528666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5658335487654125</v>
+        <v>0.3185734939998999</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.049797552991245</v>
+        <v>1.467562958314532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5146020229524221</v>
+        <v>0.2853761150363585</v>
       </c>
     </row>
     <row r="5">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3615042514835593</v>
+        <v>0.1344583301020773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8219106212880241</v>
+        <v>0.9217063041897648</v>
       </c>
     </row>
     <row r="6">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1036087328732419</v>
+        <v>0.4375435214673397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9485765049900805</v>
+        <v>0.7491659529886733</v>
       </c>
     </row>
     <row r="7">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2555417583086562</v>
+        <v>0.7005441071143242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8739460945749201</v>
+        <v>0.6100587414024612</v>
       </c>
     </row>
     <row r="8">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07105419220132214</v>
+        <v>-0.04842195161553089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3130792214946005</v>
+        <v>0.5050019297165056</v>
       </c>
     </row>
     <row r="9">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004959736656378416</v>
+        <v>0.0004882997262064457</v>
       </c>
       <c r="C9" t="n">
-        <v>8.966989081432283e-60</v>
+        <v>1.94207536642612e-59</v>
       </c>
     </row>
     <row r="10">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007581742979458519</v>
+        <v>0.00882170071005586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005115355914433775</v>
+        <v>0.001116692990984148</v>
       </c>
     </row>
     <row r="11">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1546672218045101</v>
+        <v>-0.1467093651971191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02958499950514279</v>
+        <v>0.03884574337805328</v>
       </c>
     </row>
     <row r="12">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8719059560167413</v>
+        <v>0.8550515659008168</v>
       </c>
       <c r="C12" t="n">
-        <v>5.089135528352778e-16</v>
+        <v>1.716348383767357e-15</v>
       </c>
     </row>
     <row r="13">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3629283551750851</v>
+        <v>0.2784477111707727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008849240987832813</v>
+        <v>0.04401916395377002</v>
       </c>
     </row>
     <row r="14">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.371342385068624e-05</v>
+        <v>-4.118035240864162e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005767969108139022</v>
+        <v>0.008883532747795325</v>
       </c>
     </row>
     <row r="15">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.104796929786921e-08</v>
+        <v>-5.900034479042297e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5272175910657286</v>
+        <v>0.7342023811436267</v>
       </c>
     </row>
     <row r="16">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01609551256171586</v>
+        <v>0.03315372576633964</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5376292774632505</v>
+        <v>0.2038536369341276</v>
       </c>
     </row>
     <row r="17">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08171468200044825</v>
+        <v>0.08474037189588783</v>
       </c>
       <c r="C17" t="n">
-        <v>3.705709020125312e-06</v>
+        <v>1.693555737165829e-06</v>
       </c>
     </row>
     <row r="18">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.369364760666602</v>
+        <v>-1.413884470904846</v>
       </c>
       <c r="C18" t="n">
-        <v>1.853096999053471e-05</v>
+        <v>7.644504268796833e-06</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00939137236642607</v>
+        <v>-0.007315113058974801</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02078797185115283</v>
+        <v>0.0697270031351267</v>
       </c>
     </row>
     <row r="20">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003456086115676187</v>
+        <v>-0.003910267067791184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1441789372429244</v>
+        <v>0.0953781144314141</v>
       </c>
     </row>
     <row r="21">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5392361181856918</v>
+        <v>0.2827439308517274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1537533895734385</v>
+        <v>0.4528858637047168</v>
       </c>
     </row>
     <row r="22">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001953547849505432</v>
+        <v>-0.04617630549213397</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9952532912920602</v>
+        <v>0.8871697714924083</v>
       </c>
     </row>
     <row r="23">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.186107856241575e-05</v>
+        <v>-4.45196750232702e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3174514194943227</v>
+        <v>0.2854136693654086</v>
       </c>
     </row>
   </sheetData>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.029394930483373</v>
+        <v>-0.9313867988892697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4718804244628853</v>
+        <v>0.5168522832834501</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.388329706617645</v>
+        <v>1.376722990872649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3085995155148573</v>
+        <v>0.3150730968171769</v>
       </c>
     </row>
     <row r="4">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.658418433664525</v>
+        <v>1.604553284492462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2265626898159043</v>
+        <v>0.2443114237498557</v>
       </c>
     </row>
     <row r="5">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.120163455878941</v>
+        <v>0.1356565460065988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9298840995317107</v>
+        <v>0.921264607987506</v>
       </c>
     </row>
     <row r="6">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3920761399707589</v>
+        <v>0.4155877035412468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7741021254017054</v>
+        <v>0.7621053298350694</v>
       </c>
     </row>
     <row r="7">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8158456279908182</v>
+        <v>0.7706487007979155</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5518116859881625</v>
+        <v>0.576091452877306</v>
       </c>
     </row>
     <row r="8">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1125948317472856</v>
+        <v>-0.08073098740197267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1107981014329855</v>
+        <v>0.251699836209288</v>
       </c>
     </row>
     <row r="9">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005212514570056738</v>
+        <v>0.0004874763009467861</v>
       </c>
       <c r="C9" t="n">
-        <v>5.578087503143427e-66</v>
+        <v>5.025767881922902e-59</v>
       </c>
     </row>
     <row r="10">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006623095528827443</v>
+        <v>0.008652198402295775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01414790409449253</v>
+        <v>0.001331191310775104</v>
       </c>
     </row>
     <row r="11">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1774587250904323</v>
+        <v>-0.1530700371632511</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01241740789009986</v>
+        <v>0.03097236856881724</v>
       </c>
     </row>
     <row r="12">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7937441034677898</v>
+        <v>0.8222296384730302</v>
       </c>
       <c r="C12" t="n">
-        <v>1.209485043668605e-13</v>
+        <v>9.41868618141099e-15</v>
       </c>
     </row>
     <row r="13">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3450012916736973</v>
+        <v>0.2949204804108578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01242071438333966</v>
+        <v>0.03113189140785141</v>
       </c>
     </row>
     <row r="14">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.462285369162569e-05</v>
+        <v>-4.175583622019023e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005024877947741522</v>
+        <v>0.008444591033723107</v>
       </c>
     </row>
     <row r="15">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.33962174776169e-08</v>
+        <v>-1.147557918523035e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4488375214001799</v>
+        <v>0.5096326239547868</v>
       </c>
     </row>
     <row r="16">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.002324215941060642</v>
+        <v>0.01316419401967949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9290860637183566</v>
+        <v>0.6134606488044494</v>
       </c>
     </row>
     <row r="17">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08430141153138646</v>
+        <v>0.07541288602335038</v>
       </c>
       <c r="C17" t="n">
-        <v>1.504317892143347e-06</v>
+        <v>1.690827673766221e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.6509347493431</v>
+        <v>-1.622325416685228</v>
       </c>
       <c r="C18" t="n">
-        <v>1.907289566291903e-07</v>
+        <v>3.640463665445231e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005572642382143533</v>
+        <v>-0.009610604280175666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1700621486386783</v>
+        <v>0.01722939305505142</v>
       </c>
     </row>
     <row r="20">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002600010050123112</v>
+        <v>-0.003536109941717035</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2663307116291319</v>
+        <v>0.1312112873625252</v>
       </c>
     </row>
     <row r="21">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3719070838062217</v>
+        <v>0.6172397853717407</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3286399408861469</v>
+        <v>0.1035417483599138</v>
       </c>
     </row>
     <row r="22">
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1499582989046676</v>
+        <v>0.1007306568085688</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6519594043069157</v>
+        <v>0.7592534223314904</v>
       </c>
     </row>
     <row r="23">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.079191219167978e-05</v>
+        <v>-5.442698871357941e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2265792751016328</v>
+        <v>0.1911940510277351</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6493173353880974</v>
+        <v>-1.246519220529222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6981539295168171</v>
+        <v>0.3871316053571767</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8809092739942749</v>
+        <v>1.442518258612328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5852905249865932</v>
+        <v>0.293320221547077</v>
       </c>
     </row>
     <row r="4">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.096522419825455</v>
+        <v>1.578840358336078</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4988343648889475</v>
+        <v>0.252815356312837</v>
       </c>
     </row>
     <row r="5">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3102535899057336</v>
+        <v>0.1881880957327668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.84778916921994</v>
+        <v>0.8911264112080937</v>
       </c>
     </row>
     <row r="6">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03737881056459563</v>
+        <v>0.4788740092318767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9815554331695108</v>
+        <v>0.7276865994552237</v>
       </c>
     </row>
     <row r="7">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3178680753518478</v>
+        <v>0.7582493620383995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.844558634182367</v>
+        <v>0.582826927609128</v>
       </c>
     </row>
     <row r="8">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04205624969397007</v>
+        <v>-0.06164975172462921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5654613212905759</v>
+        <v>0.3919748357533727</v>
       </c>
     </row>
     <row r="9">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00049419951549035</v>
+        <v>0.0005124797652567937</v>
       </c>
       <c r="C9" t="n">
-        <v>3.294610093930602e-60</v>
+        <v>4.017398771930177e-63</v>
       </c>
     </row>
     <row r="10">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007841359298278255</v>
+        <v>0.008908654444992009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003672345026815771</v>
+        <v>0.001051862895944738</v>
       </c>
     </row>
     <row r="11">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1110471905151497</v>
+        <v>-0.1466832062833599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1199706464677862</v>
+        <v>0.04067310252201253</v>
       </c>
     </row>
     <row r="12">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8344584438105865</v>
+        <v>0.7860564987851151</v>
       </c>
       <c r="C12" t="n">
-        <v>4.122748731456926e-15</v>
+        <v>3.506889510133912e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.391967477643184</v>
+        <v>0.2874221087511448</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00419333863533416</v>
+        <v>0.03969660127225908</v>
       </c>
     </row>
     <row r="14">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.071355963204166e-05</v>
+        <v>-5.024889694074423e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01017519955267517</v>
+        <v>0.001509191761809996</v>
       </c>
     </row>
     <row r="15">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.499373839927976e-08</v>
+        <v>-2.115080801053308e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3943836002722291</v>
+        <v>0.9049289318489581</v>
       </c>
     </row>
     <row r="16">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01631412957098467</v>
+        <v>0.00425815845992503</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5343191845355004</v>
+        <v>0.870457131304194</v>
       </c>
     </row>
     <row r="17">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09092978985594366</v>
+        <v>0.07680007696670495</v>
       </c>
       <c r="C17" t="n">
-        <v>3.42855916305853e-07</v>
+        <v>1.314515733464367e-05</v>
       </c>
     </row>
     <row r="18">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.499334462704186</v>
+        <v>-1.46408782019326</v>
       </c>
       <c r="C18" t="n">
-        <v>2.344327410993463e-06</v>
+        <v>5.470531470300905e-06</v>
       </c>
     </row>
     <row r="19">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009865884813993087</v>
+        <v>-0.006968130536137025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01536816522166693</v>
+        <v>0.08806528805581573</v>
       </c>
     </row>
     <row r="20">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003395819398799744</v>
+        <v>-0.002415980997600171</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1549936388972621</v>
+        <v>0.3087854918047449</v>
       </c>
     </row>
     <row r="21">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5267407855499481</v>
+        <v>0.5532855251188991</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1643752774833642</v>
+        <v>0.1449158468091723</v>
       </c>
     </row>
     <row r="22">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05473959227995392</v>
+        <v>0.06919570045231863</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8684923410440007</v>
+        <v>0.8338057064892016</v>
       </c>
     </row>
     <row r="23">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.985937132957347e-05</v>
+        <v>-6.875994275471308e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4773901152129481</v>
+        <v>0.1035283537843061</v>
       </c>
     </row>
   </sheetData>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.246911931581049</v>
+        <v>-0.8346909341314536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3869589618807932</v>
+        <v>0.6131401648305408</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.395298521170077</v>
+        <v>0.9122929458777282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3095668473107248</v>
+        <v>0.5665126057634873</v>
       </c>
     </row>
     <row r="4">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.509025201590519</v>
+        <v>1.115993174805092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2745730791472817</v>
+        <v>0.4851201178738134</v>
       </c>
     </row>
     <row r="5">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1423256812364516</v>
+        <v>-0.3705437526959033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9175784946421885</v>
+        <v>0.8161415413120212</v>
       </c>
     </row>
     <row r="6">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4141882819334605</v>
+        <v>-0.01038550780268217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.763361066766467</v>
+        <v>0.994801517859441</v>
       </c>
     </row>
     <row r="7">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6548796526651022</v>
+        <v>0.3098067722346028</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6353667700730579</v>
+        <v>0.8463173828014176</v>
       </c>
     </row>
     <row r="8">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.03240027504190136</v>
+        <v>-0.08402431961045252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6553321484162019</v>
+        <v>0.246179455331724</v>
       </c>
     </row>
     <row r="9">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004658346951602129</v>
+        <v>0.0005019528688887813</v>
       </c>
       <c r="C9" t="n">
-        <v>3.158087491347139e-54</v>
+        <v>1.149774727833627e-62</v>
       </c>
     </row>
     <row r="10">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009439249593832251</v>
+        <v>0.00847977482465527</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000502557292102864</v>
+        <v>0.001693019405045189</v>
       </c>
     </row>
     <row r="11">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1182404443092059</v>
+        <v>-0.1468489076672903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09868427374549375</v>
+        <v>0.03854198197487906</v>
       </c>
     </row>
     <row r="12">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8622402317833479</v>
+        <v>0.7690755636605735</v>
       </c>
       <c r="C12" t="n">
-        <v>8.834608350319156e-16</v>
+        <v>9.181936345408555e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3170237804507262</v>
+        <v>0.263194447426965</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02227734897189763</v>
+        <v>0.05765885833453602</v>
       </c>
     </row>
     <row r="14">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.791433771671439e-05</v>
+        <v>-3.80816138046687e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0165375032281927</v>
+        <v>0.01632092291930255</v>
       </c>
     </row>
     <row r="15">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.519562073288791e-08</v>
+        <v>-4.956832922247909e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3870119272786432</v>
+        <v>0.7783347200683397</v>
       </c>
     </row>
     <row r="16">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00659441633907059</v>
+        <v>0.02098782522746361</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8008472101453725</v>
+        <v>0.4192626269461359</v>
       </c>
     </row>
     <row r="17">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08801601324466717</v>
+        <v>0.08598357361469175</v>
       </c>
       <c r="C17" t="n">
-        <v>7.274472225604899e-07</v>
+        <v>1.066422137306862e-06</v>
       </c>
     </row>
     <row r="18">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.430351568210894</v>
+        <v>-1.642874486078347</v>
       </c>
       <c r="C18" t="n">
-        <v>8.133634614194938e-06</v>
+        <v>1.824886944791352e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008910809256584199</v>
+        <v>-0.005193748657590984</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0273866208059612</v>
+        <v>0.2021274284810647</v>
       </c>
     </row>
     <row r="20">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002795823956524169</v>
+        <v>-0.002085682001729527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2390450052150218</v>
+        <v>0.3769311670472626</v>
       </c>
     </row>
     <row r="21">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6590314424651424</v>
+        <v>0.4589885871704778</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08239662107202059</v>
+        <v>0.2266252326121496</v>
       </c>
     </row>
     <row r="22">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2605706796439781</v>
+        <v>0.1674978919037648</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4329170293344488</v>
+        <v>0.6103631002404366</v>
       </c>
     </row>
     <row r="23">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-6.068531387067178e-05</v>
+        <v>-7.698191552262962e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1468213118588878</v>
+        <v>0.06372516884168958</v>
       </c>
     </row>
   </sheetData>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.320118842314774</v>
+        <v>-1.046732225090482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3616543177212994</v>
+        <v>0.46580076457096</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.460426873277831</v>
+        <v>1.438873420908737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2896660194316844</v>
+        <v>0.2923969389381169</v>
       </c>
     </row>
     <row r="4">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.532411164286104</v>
+        <v>1.603252347583045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2694095136055836</v>
+        <v>0.2435071244846452</v>
       </c>
     </row>
     <row r="5">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3312807713595787</v>
+        <v>0.1795956194714228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8104939983565512</v>
+        <v>0.895612443809467</v>
       </c>
     </row>
     <row r="6">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6150825755084415</v>
+        <v>0.4509000335949796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6562696556133223</v>
+        <v>0.7419191235689273</v>
       </c>
     </row>
     <row r="7">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7719241849524643</v>
+        <v>0.8801948641442882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5779084394907604</v>
+        <v>0.5220423576705902</v>
       </c>
     </row>
     <row r="8">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01698714271698567</v>
+        <v>-0.04245535883461857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8212230264366366</v>
+        <v>0.5579103348250124</v>
       </c>
     </row>
     <row r="9">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005230441827472718</v>
+        <v>0.0004846674226559685</v>
       </c>
       <c r="C9" t="n">
-        <v>4.311768764338434e-65</v>
+        <v>1.688810849519424e-58</v>
       </c>
     </row>
     <row r="10">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008677001866908065</v>
+        <v>0.006861153364919462</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001387812987418577</v>
+        <v>0.01177252425268304</v>
       </c>
     </row>
     <row r="11">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1083119725816702</v>
+        <v>-0.1997527138543775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1294487727542665</v>
+        <v>0.005209718254798921</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7455134188176804</v>
+        <v>0.8618599623455883</v>
       </c>
       <c r="C12" t="n">
-        <v>3.951512667304265e-12</v>
+        <v>9.45032876436065e-16</v>
       </c>
     </row>
     <row r="13">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2896987031632358</v>
+        <v>0.3855878961451614</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03685561407790491</v>
+        <v>0.005600409483165342</v>
       </c>
     </row>
     <row r="14">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.061763534037801e-05</v>
+        <v>-4.007866407887863e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001384919739222103</v>
+        <v>0.010321592465295</v>
       </c>
     </row>
     <row r="15">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.382133641606647e-08</v>
+        <v>-7.942593370524848e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4296065892561668</v>
+        <v>0.6502766130370082</v>
       </c>
     </row>
     <row r="16">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02109130666102722</v>
+        <v>0.02010592931384036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420701305147388</v>
+        <v>0.4429054219863947</v>
       </c>
     </row>
     <row r="17">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07721203690273588</v>
+        <v>0.07669634580808937</v>
       </c>
       <c r="C17" t="n">
-        <v>1.236098925478012e-05</v>
+        <v>1.36504480418971e-05</v>
       </c>
     </row>
     <row r="18">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.469179730318175</v>
+        <v>-1.489090946949721</v>
       </c>
       <c r="C18" t="n">
-        <v>5.652257054432453e-06</v>
+        <v>3.838186612318003e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006566159058445294</v>
+        <v>-0.005786119385949272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1071425074478694</v>
+        <v>0.1531328951713374</v>
       </c>
     </row>
     <row r="20">
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003453335425523694</v>
+        <v>-0.003089983379615518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1430819390509203</v>
+        <v>0.1934960826080183</v>
       </c>
     </row>
     <row r="21">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3745579357524934</v>
+        <v>0.2806750503134299</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3252958220841734</v>
+        <v>0.4580512837640963</v>
       </c>
     </row>
     <row r="22">
@@ -2336,10 +2336,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2109805572510647</v>
+        <v>0.001033080916545845</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5238694315906185</v>
+        <v>0.9974955560183548</v>
       </c>
     </row>
     <row r="23">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-6.932068252262667e-05</v>
+        <v>-8.958504942301871e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09677541861992368</v>
+        <v>0.03193765179044605</v>
       </c>
     </row>
   </sheetData>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.4228577020206</v>
+        <v>-1.004234062863558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9961219474120079</v>
+        <v>0.4864427798780192</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.86170407295982</v>
+        <v>1.402510092705602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9960183201441697</v>
+        <v>0.3080070641270044</v>
       </c>
     </row>
     <row r="4">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.98230630684327</v>
+        <v>1.52413408404385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9959898416823485</v>
+        <v>0.2706898522151465</v>
       </c>
     </row>
     <row r="5">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.56748709706108</v>
+        <v>0.1139462146342459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9963239309931503</v>
+        <v>0.9340946985389841</v>
       </c>
     </row>
     <row r="6">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.89600660875249</v>
+        <v>0.4327801436721351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9962463557513026</v>
+        <v>0.7535294812569291</v>
       </c>
     </row>
     <row r="7">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.09688817485118</v>
+        <v>0.7510977076867864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.996198920426968</v>
+        <v>0.5872360938978578</v>
       </c>
     </row>
     <row r="8">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07135222072258039</v>
+        <v>-0.05129924393207218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3079461425454665</v>
+        <v>0.4761499737140037</v>
       </c>
     </row>
     <row r="9">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004785782143855631</v>
+        <v>0.0004927714073216555</v>
       </c>
       <c r="C9" t="n">
-        <v>1.299432686428508e-57</v>
+        <v>4.995875594091852e-60</v>
       </c>
     </row>
     <row r="10">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008382148071702735</v>
+        <v>0.007623671912436864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001867465216049767</v>
+        <v>0.004684691845843338</v>
       </c>
     </row>
     <row r="11">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1563573866488052</v>
+        <v>-0.1352133012301728</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02748440953485554</v>
+        <v>0.05820414090192978</v>
       </c>
     </row>
     <row r="12">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.887550097175099</v>
+        <v>0.8366585012024055</v>
       </c>
       <c r="C12" t="n">
-        <v>9.806652645481429e-17</v>
+        <v>6.180366867342282e-15</v>
       </c>
     </row>
     <row r="13">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3122903041127127</v>
+        <v>0.3734971431779525</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02326526321456711</v>
+        <v>0.006976720747033266</v>
       </c>
     </row>
     <row r="14">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.576385365195557e-05</v>
+        <v>-3.606623782010904e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003568852276606146</v>
+        <v>0.02318073959740797</v>
       </c>
     </row>
     <row r="15">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.053139057241136e-08</v>
+        <v>-2.22243896558023e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5458960263820936</v>
+        <v>0.2069613351681224</v>
       </c>
     </row>
     <row r="16">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008605960799298654</v>
+        <v>0.00362619594757807</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7398871890156395</v>
+        <v>0.8900054145039824</v>
       </c>
     </row>
     <row r="17">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08381984926543215</v>
+        <v>0.08002904555611938</v>
       </c>
       <c r="C17" t="n">
-        <v>1.852984184125694e-06</v>
+        <v>5.647339176433255e-06</v>
       </c>
     </row>
     <row r="18">
@@ -2606,10 +2606,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.504655073997673</v>
+        <v>-1.450029700265429</v>
       </c>
       <c r="C18" t="n">
-        <v>1.872057096666058e-06</v>
+        <v>5.955983717453475e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2619,10 +2619,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006516528503531072</v>
+        <v>-0.009579337661198185</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1071850612050773</v>
+        <v>0.01718942846389884</v>
       </c>
     </row>
     <row r="20">
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00410054152318742</v>
+        <v>-0.003563149254051496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07890635398939362</v>
+        <v>0.1305034478795613</v>
       </c>
     </row>
     <row r="21">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3650434258392298</v>
+        <v>0.4944034202573483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.333975788613511</v>
+        <v>0.1900594408625794</v>
       </c>
     </row>
     <row r="22">
@@ -2658,10 +2658,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2381878579431313</v>
+        <v>0.391279789662198</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4702436444778265</v>
+        <v>0.2402733801565432</v>
       </c>
     </row>
     <row r="23">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-6.473750817628881e-05</v>
+        <v>-4.801775428471377e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1203547960703027</v>
+        <v>0.2544384490599971</v>
       </c>
     </row>
   </sheetData>
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8167716625599715</v>
+        <v>-0.8530247539117045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5696557935098967</v>
+        <v>0.5545555160614958</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.421238491436112</v>
+        <v>1.369250130540844</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2994676966634069</v>
+        <v>0.3198848776135896</v>
       </c>
     </row>
     <row r="4">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.577388454908535</v>
+        <v>1.45124287252069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2522191467887863</v>
+        <v>0.2944053640660875</v>
       </c>
     </row>
     <row r="5">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.118094996617065</v>
+        <v>0.1645504508401426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9313993783141483</v>
+        <v>0.9049924881067809</v>
       </c>
     </row>
     <row r="6">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4981168217951041</v>
+        <v>0.4647862923837601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7166052465446928</v>
+        <v>0.736098849622179</v>
       </c>
     </row>
     <row r="7">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8037570695270077</v>
+        <v>0.6720301251852188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5596093402115223</v>
+        <v>0.62730236687522</v>
       </c>
     </row>
     <row r="8">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06767972584551228</v>
+        <v>-0.04620279817799726</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3417934782238028</v>
+        <v>0.5122439569122754</v>
       </c>
     </row>
     <row r="9">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004883700176158047</v>
+        <v>0.0004956850073465545</v>
       </c>
       <c r="C9" t="n">
-        <v>2.904459684126321e-59</v>
+        <v>1.0596228932183e-60</v>
       </c>
     </row>
     <row r="10">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007820428365204286</v>
+        <v>0.007748113854034093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003896082093181034</v>
+        <v>0.00416946267113938</v>
       </c>
     </row>
     <row r="11">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1620463187825429</v>
+        <v>-0.104564249682265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02274752575500486</v>
+        <v>0.1415246124301776</v>
       </c>
     </row>
     <row r="12">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8211059832205588</v>
+        <v>0.8579718666514431</v>
       </c>
       <c r="C12" t="n">
-        <v>2.081486391439474e-14</v>
+        <v>8.944927733851652e-16</v>
       </c>
     </row>
     <row r="13">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3355974722828655</v>
+        <v>0.3457280920786075</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01624307689471285</v>
+        <v>0.01247682276045673</v>
       </c>
     </row>
     <row r="14">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.202112193360396e-05</v>
+        <v>-4.710194644822501e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007595216468435955</v>
+        <v>0.002754164400353564</v>
       </c>
     </row>
     <row r="15">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.458105924886328e-09</v>
+        <v>-1.269967796429303e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7991130786065468</v>
+        <v>0.4696622496237451</v>
       </c>
     </row>
     <row r="16">
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01968804458373954</v>
+        <v>0.01450660825951389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4494693202559389</v>
+        <v>0.5773308334212861</v>
       </c>
     </row>
     <row r="17">
@@ -2915,10 +2915,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07234228109505648</v>
+        <v>0.09145198182334004</v>
       </c>
       <c r="C17" t="n">
-        <v>3.903366483011372e-05</v>
+        <v>2.649533582626458e-07</v>
       </c>
     </row>
     <row r="18">
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.594736809015106</v>
+        <v>-1.330895379815283</v>
       </c>
       <c r="C18" t="n">
-        <v>4.209957579325399e-07</v>
+        <v>2.854292187808689e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.009121984578328569</v>
+        <v>-0.01088738615354414</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02417834866274116</v>
+        <v>0.007215543527553559</v>
       </c>
     </row>
     <row r="20">
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00451029883856218</v>
+        <v>-0.005141532046616113</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05373491080710958</v>
+        <v>0.02927347057168037</v>
       </c>
     </row>
     <row r="21">
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4940308360434763</v>
+        <v>0.4918606030171156</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1905764637760515</v>
+        <v>0.190565648212128</v>
       </c>
     </row>
     <row r="22">
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01080608220976795</v>
+        <v>0.2683915649691783</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9737541669977138</v>
+        <v>0.4182135670198543</v>
       </c>
     </row>
     <row r="23">
@@ -2993,10 +2993,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-6.558587379008157e-05</v>
+        <v>-4.427913214574317e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1180351137904529</v>
+        <v>0.2898678603246434</v>
       </c>
     </row>
   </sheetData>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9931024950787477</v>
+        <v>-17.86790116907612</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4887980394276433</v>
+        <v>0.9985386603058617</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.368626769744555</v>
+        <v>18.29716694480782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3168829504433063</v>
+        <v>0.99850355252182</v>
       </c>
     </row>
     <row r="4">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.549971229617985</v>
+        <v>18.4003834486394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.259795494616476</v>
+        <v>0.9984951108930388</v>
       </c>
     </row>
     <row r="5">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07544513624121911</v>
+        <v>17.03897467810313</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9560717265042756</v>
+        <v>0.9986064546085558</v>
       </c>
     </row>
     <row r="6">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3881737206369404</v>
+        <v>17.30874840815246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7769182166155193</v>
+        <v>0.9985843909836055</v>
       </c>
     </row>
     <row r="7">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.701340691819937</v>
+        <v>17.57683804204468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6099783441458405</v>
+        <v>0.9985624650947573</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.07755199545993444</v>
+        <v>-0.05144748503329542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2801333280406948</v>
+        <v>0.4710595007245709</v>
       </c>
     </row>
     <row r="9">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004936348187640912</v>
+        <v>0.0005031108368384988</v>
       </c>
       <c r="C9" t="n">
-        <v>1.37642497735986e-60</v>
+        <v>1.342516084574761e-60</v>
       </c>
     </row>
     <row r="10">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007799817650799424</v>
+        <v>0.007223543038690517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003919429343329115</v>
+        <v>0.007493801698831676</v>
       </c>
     </row>
     <row r="11">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1644709372996473</v>
+        <v>-0.1543269503253776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02039359537267841</v>
+        <v>0.03057405202090352</v>
       </c>
     </row>
     <row r="12">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8537172130370693</v>
+        <v>0.8352443239563219</v>
       </c>
       <c r="C12" t="n">
-        <v>1.690460513692086e-15</v>
+        <v>5.994344280378969e-15</v>
       </c>
     </row>
     <row r="13">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3352605523755489</v>
+        <v>0.3765864161850652</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0153826191749297</v>
+        <v>0.006362562548821191</v>
       </c>
     </row>
     <row r="14">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.616026050388733e-05</v>
+        <v>-4.813994496403842e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00345520259677385</v>
+        <v>0.00241073283820844</v>
       </c>
     </row>
     <row r="15">
@@ -3211,10 +3211,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.037201121601975e-08</v>
+        <v>-1.90948043723708e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5566762356824494</v>
+        <v>0.2771240928766528</v>
       </c>
     </row>
     <row r="16">
@@ -3224,10 +3224,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0102123822442962</v>
+        <v>-0.004614739446561674</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6941300874533961</v>
+        <v>0.8593959896478049</v>
       </c>
     </row>
     <row r="17">
@@ -3237,10 +3237,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08004684659674761</v>
+        <v>0.09112734386154764</v>
       </c>
       <c r="C17" t="n">
-        <v>4.995121860237274e-06</v>
+        <v>2.711434235355199e-07</v>
       </c>
     </row>
     <row r="18">
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.440212728017032</v>
+        <v>-1.265649626003499</v>
       </c>
       <c r="C18" t="n">
-        <v>5.642638363569995e-06</v>
+        <v>7.346363268810995e-05</v>
       </c>
     </row>
     <row r="19">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007614820255972679</v>
+        <v>-0.006899393013003874</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05890348873832005</v>
+        <v>0.09042880402994516</v>
       </c>
     </row>
     <row r="20">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003484895363857041</v>
+        <v>-0.004280343559205098</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1394043113249351</v>
+        <v>0.0684868636626898</v>
       </c>
     </row>
     <row r="21">
@@ -3289,10 +3289,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4651364265650884</v>
+        <v>0.454486873528924</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215837443591706</v>
+        <v>0.2317746999118329</v>
       </c>
     </row>
     <row r="22">
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1731147832150649</v>
+        <v>0.182232273754824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5979846659739694</v>
+        <v>0.5812060189964758</v>
       </c>
     </row>
     <row r="23">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.247425025650029e-05</v>
+        <v>-4.582530071354868e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2084807728418798</v>
+        <v>0.274212832601067</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Germany_other.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Germany_other.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,283 +466,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.117148762607284</v>
+        <v>-1.189457642436835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4362467588155443</v>
+        <v>0.005178765971861628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.394783668395192</v>
+        <v>0.4081881353682078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3074860698414214</v>
+        <v>6.425889546933621e-28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.558253646153427</v>
+        <v>0.0005718511325758439</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2570398379725967</v>
+        <v>2.433319062007976e-83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1926696071383721</v>
+        <v>0.01013026627933839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.888072919419381</v>
+        <v>8.552905133659871e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4863526376271235</v>
+        <v>-0.118616107441059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7224711981235672</v>
+        <v>0.08550165072736125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7166765073871956</v>
+        <v>0.6993350189647509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6020462756541735</v>
+        <v>2.709996881978982e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0320344781887736</v>
+        <v>0.283010103866544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6602162893497803</v>
+        <v>0.03494932816831364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000498979601052286</v>
+        <v>-4.706701991527395e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.156410110738498e-61</v>
+        <v>0.0001298259564051521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007499172612067818</v>
+        <v>-2.070676737510044e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005388989251793139</v>
+        <v>0.2173050641140849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1288534062168053</v>
+        <v>-0.004535455700292061</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06865595001492752</v>
+        <v>0.859627018045658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8124482680849062</v>
+        <v>0.08546273067501774</v>
       </c>
       <c r="C12" t="n">
-        <v>3.244998230779668e-14</v>
+        <v>8.657869528188019e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3356948233495763</v>
+        <v>-1.882449976213548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01519405286087772</v>
+        <v>3.953287591341801e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.316371584416206e-05</v>
+        <v>-0.005199868035828112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007739826414289171</v>
+        <v>0.1573045052941652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.266953226243866e-08</v>
+        <v>-0.002932836881312717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4716294682805071</v>
+        <v>0.208271282026937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003545403414474364</v>
+        <v>-0.07041659298193553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8916229604075869</v>
+        <v>0.8270839835175141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08169650150776192</v>
+        <v>8.916657353681656e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>3.5953503105376e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.582886157899407</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.597140378638963e-07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.008150771289796573</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.04450598889875623</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.003120981629948927</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1868312967403605</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6446074959350636</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.09058246734955486</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.06378163728564111</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8456486697656563</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-3.290613451586743e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4329333714952122</v>
+        <v>0.8255134201629999</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,283 +710,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.087890645353082</v>
+        <v>-1.243181317284147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4478088854663322</v>
+        <v>0.003295611386566451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.362270924528666</v>
+        <v>0.3781146556533798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3185734939998999</v>
+        <v>5.674624920021393e-25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.467562958314532</v>
+        <v>0.0005676396781771392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2853761150363585</v>
+        <v>2.53207053680781e-83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1344583301020773</v>
+        <v>0.0115675472398377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9217063041897648</v>
+        <v>7.66191987654922e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4375435214673397</v>
+        <v>-0.1440866384708645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7491659529886733</v>
+        <v>0.03707836329735201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7005441071143242</v>
+        <v>0.729652992884237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6100587414024612</v>
+        <v>3.986475067734112e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04842195161553089</v>
+        <v>0.2218123354927429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5050019297165056</v>
+        <v>0.09771459881277608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004882997262064457</v>
+        <v>-4.55169477573193e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.94207536642612e-59</v>
+        <v>0.0002143741410268786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00882170071005586</v>
+        <v>-1.033489307176935e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001116692990984148</v>
+        <v>0.5325934947673436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1467093651971191</v>
+        <v>0.02462917261292323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03884574337805328</v>
+        <v>0.3371955680664818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8550515659008168</v>
+        <v>0.08769388215121146</v>
       </c>
       <c r="C12" t="n">
-        <v>1.716348383767357e-15</v>
+        <v>4.644770381004217e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2784477111707727</v>
+        <v>-1.622492589110256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04401916395377002</v>
+        <v>6.661430775307584e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.118035240864162e-05</v>
+        <v>-0.005313975824712691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008883532747795325</v>
+        <v>0.1454386283315835</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.900034479042297e-09</v>
+        <v>-0.003621736746488769</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7342023811436267</v>
+        <v>0.1167504843170969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03315372576633964</v>
+        <v>-0.01851744623195833</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2038536369341276</v>
+        <v>0.9537973748263213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08474037189588783</v>
+        <v>-1.173681782229251e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.693555737165829e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.413884470904846</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.644504268796833e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.007315113058974801</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0697270031351267</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.003910267067791184</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0953781144314141</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2827439308517274</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4528858637047168</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.04617630549213397</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8871697714924083</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-4.45196750232702e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2854136693654086</v>
+        <v>0.7700868039795736</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,283 +954,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9313867988892697</v>
+        <v>-1.081481651674822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5168522832834501</v>
+        <v>0.01040926222223234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.376722990872649</v>
+        <v>0.383929934678751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3150730968171769</v>
+        <v>1.993763989496923e-25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.604553284492462</v>
+        <v>0.0005634703346159029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2443114237498557</v>
+        <v>1.014542181645201e-81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1356565460065988</v>
+        <v>0.01101466904196123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.921264607987506</v>
+        <v>1.951770632369019e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4155877035412468</v>
+        <v>-0.1492024645338042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7621053298350694</v>
+        <v>0.03094168974549004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7706487007979155</v>
+        <v>0.7134064817481861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.576091452877306</v>
+        <v>6.74359709510825e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08073098740197267</v>
+        <v>0.2554920944024894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.251699836209288</v>
+        <v>0.05410072993900009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004874763009467861</v>
+        <v>-3.723258586089516e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.025767881922902e-59</v>
+        <v>0.002530992033006049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008652198402295775</v>
+        <v>-1.961167532306969e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001331191310775104</v>
+        <v>0.2355906465703185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1530700371632511</v>
+        <v>0.003616982861179017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03097236856881724</v>
+        <v>0.8879603094902435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8222296384730302</v>
+        <v>0.07934540545342712</v>
       </c>
       <c r="C12" t="n">
-        <v>9.41868618141099e-15</v>
+        <v>4.295771440716582e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2949204804108578</v>
+        <v>-1.876868232415097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03113189140785141</v>
+        <v>6.163066395588093e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.175583622019023e-05</v>
+        <v>-0.006847715041186028</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008444591033723107</v>
+        <v>0.06042903179537057</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.147557918523035e-08</v>
+        <v>-0.003265724285364552</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5096326239547868</v>
+        <v>0.1575232890365601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01316419401967949</v>
+        <v>0.1129982633840141</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6134606488044494</v>
+        <v>0.7264258182322993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07541288602335038</v>
+        <v>-1.518366202610685e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.690827673766221e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.622325416685228</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.640463665445231e-07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.009610604280175666</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01722939305505142</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.003536109941717035</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1312112873625252</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6172397853717407</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1035417483599138</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1007306568085688</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7592534223314904</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-5.442698871357941e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1911940510277351</v>
+        <v>0.7048325907763833</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,283 +1198,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.246519220529222</v>
+        <v>-1.400047697900565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3871316053571767</v>
+        <v>0.001049957617012475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.442518258612328</v>
+        <v>0.38319870939848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.293320221547077</v>
+        <v>3.018701550982934e-25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.578840358336078</v>
+        <v>0.0005909377153292105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.252815356312837</v>
+        <v>5.137004350967451e-87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1881880957327668</v>
+        <v>0.01160298879628772</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8911264112080937</v>
+        <v>7.767930929477828e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4788740092318767</v>
+        <v>-0.1420768548764721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7276865994552237</v>
+        <v>0.04148032907775053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7582493620383995</v>
+        <v>0.6740873911575475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.582826927609128</v>
+        <v>1.877957095004165e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06164975172462921</v>
+        <v>0.2441234550186845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3919748357533727</v>
+        <v>0.07094557145148198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005124797652567937</v>
+        <v>-4.702990413149298e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.017398771930177e-63</v>
+        <v>0.0001500369061066413</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008908654444992009</v>
+        <v>-7.287168102221621e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001051862895944738</v>
+        <v>0.6652469037933437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1466832062833599</v>
+        <v>-0.002978706050159055</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04067310252201253</v>
+        <v>0.9077233939440144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7860564987851151</v>
+        <v>0.08258957336187261</v>
       </c>
       <c r="C12" t="n">
-        <v>3.506889510133912e-13</v>
+        <v>1.916808002103747e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2874221087511448</v>
+        <v>-1.680705841116057</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03969660127225908</v>
+        <v>3.932560352262387e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.024889694074423e-05</v>
+        <v>-0.003991543280168987</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001509191761809996</v>
+        <v>0.2809623347188246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.115080801053308e-09</v>
+        <v>-0.001941558215381552</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9049289318489581</v>
+        <v>0.4065860948712346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00425815845992503</v>
+        <v>0.05788608502973078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.870457131304194</v>
+        <v>0.8580759432769687</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07680007696670495</v>
+        <v>-2.94232165007292e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.314515733464367e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.46408782019326</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.470531470300905e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.006968130536137025</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.08806528805581573</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.002415980997600171</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3087854918047449</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5532855251188991</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1449158468091723</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.06919570045231863</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8338057064892016</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-6.875994275471308e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1035283537843061</v>
+        <v>0.4683148022198007</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,283 +1442,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8346909341314536</v>
+        <v>-1.507198269633413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6131401648305408</v>
+        <v>0.0003841575551400792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9122929458777282</v>
+        <v>0.3822746461660533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5665126057634873</v>
+        <v>3.145264046239461e-25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.115993174805092</v>
+        <v>0.0005779233374317767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4851201178738134</v>
+        <v>3.347827186628073e-86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3705437526959033</v>
+        <v>0.0108157417764467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8161415413120212</v>
+        <v>2.769118856012623e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01038550780268217</v>
+        <v>-0.1373731870467197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.994801517859441</v>
+        <v>0.0465871005904217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3098067722346028</v>
+        <v>0.6512585530039953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8463173828014176</v>
+        <v>6.259365284984997e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.08402431961045252</v>
+        <v>0.218318760220738</v>
       </c>
       <c r="C8" t="n">
-        <v>0.246179455331724</v>
+        <v>0.1037964420862558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005019528688887813</v>
+        <v>-3.938111218724247e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.149774727833627e-62</v>
+        <v>0.001422093510749598</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00847977482465527</v>
+        <v>-9.399967375561279e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001693019405045189</v>
+        <v>0.5746019226524733</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1468489076672903</v>
+        <v>0.01425459329283082</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03854198197487906</v>
+        <v>0.5771044224616479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7690755636605735</v>
+        <v>0.08945597693848178</v>
       </c>
       <c r="C12" t="n">
-        <v>9.181936345408555e-13</v>
+        <v>2.48113389034563e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.263194447426965</v>
+        <v>-1.873976026547502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05765885833453602</v>
+        <v>3.867827549900928e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.80816138046687e-05</v>
+        <v>-0.002394650869552505</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01632092291930255</v>
+        <v>0.513740447391251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.956832922247909e-09</v>
+        <v>-0.001695723142797581</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7783347200683397</v>
+        <v>0.4656464239331911</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02098782522746361</v>
+        <v>0.1645661699857905</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4192626269461359</v>
+        <v>0.6100368328743295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08598357361469175</v>
+        <v>-3.901964183389156e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.066422137306862e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.642874486078347</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.824886944791352e-07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.005193748657590984</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2021274284810647</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.002085682001729527</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3769311670472626</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4589885871704778</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2266252326121496</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1674978919037648</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6103631002404366</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-7.698191552262962e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.06372516884168958</v>
+        <v>0.3288973008888375</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,283 +1686,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.046732225090482</v>
+        <v>-1.205279371596611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.46580076457096</v>
+        <v>0.004596298641091014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.438873420908737</v>
+        <v>0.4243185984934427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2923969389381169</v>
+        <v>3.752867071165927e-30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.603252347583045</v>
+        <v>0.0005599318733034583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2435071244846452</v>
+        <v>4.055689048979729e-81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1795956194714228</v>
+        <v>0.009395092513095792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.895612443809467</v>
+        <v>0.0003124210705093207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4509000335949796</v>
+        <v>-0.1975441571079988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7419191235689273</v>
+        <v>0.004537794217930596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8801948641442882</v>
+        <v>0.7407667124908298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5220423576705902</v>
+        <v>1.703210330301589e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04245535883461857</v>
+        <v>0.334358998687181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5579103348250124</v>
+        <v>0.01310293906290267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004846674226559685</v>
+        <v>-4.445075670209244e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.688810849519424e-58</v>
+        <v>0.0002673743584668092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006861153364919462</v>
+        <v>-1.323187869935389e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01177252425268304</v>
+        <v>0.4275414068934121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1997527138543775</v>
+        <v>0.0103126932138489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005209718254798921</v>
+        <v>0.6889905395940479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8618599623455883</v>
+        <v>0.0806037016756951</v>
       </c>
       <c r="C12" t="n">
-        <v>9.45032876436065e-16</v>
+        <v>3.305649708757369e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3855878961451614</v>
+        <v>-1.681841089751917</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005600409483165342</v>
+        <v>4.229192676944846e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.007866407887863e-05</v>
+        <v>-0.00387628769699468</v>
       </c>
       <c r="C14" t="n">
-        <v>0.010321592465295</v>
+        <v>0.2889406306675927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.942593370524848e-09</v>
+        <v>-0.002661431478011703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6502766130370082</v>
+        <v>0.2552542307955717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02010592931384036</v>
+        <v>0.02870755883782725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4429054219863947</v>
+        <v>0.9292798203002106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07669634580808937</v>
+        <v>-5.380035259937927e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.36504480418971e-05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.489090946949721</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.838186612318003e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.005786119385949272</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1531328951713374</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.003089983379615518</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1934960826080183</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.2806750503134299</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4580512837640963</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.001033080916545845</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9974955560183548</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-8.958504942301871e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.03193765179044605</v>
+        <v>0.1808295834829335</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,283 +1930,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.004234062863558</v>
+        <v>-1.183984377682875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4864427798780192</v>
+        <v>0.005114725806839045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.402510092705602</v>
+        <v>0.4037264802416815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3080070641270044</v>
+        <v>1.728616954349159e-27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.52413408404385</v>
+        <v>0.0005701201616142766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2706898522151465</v>
+        <v>3.99983458733251e-83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1139462146342459</v>
+        <v>0.01049091093034408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9340946985389841</v>
+        <v>4.483630990268634e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4327801436721351</v>
+        <v>-0.1294681412239166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7535294812569291</v>
+        <v>0.06190914461806199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7510977076867864</v>
+        <v>0.7149005371322433</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5872360938978578</v>
+        <v>8.890540338797103e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05129924393207218</v>
+        <v>0.3056458013233855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4761499737140037</v>
+        <v>0.02218807970888671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004927714073216555</v>
+        <v>-3.412922277835104e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.995875594091852e-60</v>
+        <v>0.005680653648523856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007623671912436864</v>
+        <v>-2.886612870078296e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004684691845843338</v>
+        <v>0.08405302621498988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1352133012301728</v>
+        <v>-0.006660054039388738</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05820414090192978</v>
+        <v>0.7959591911584627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8366585012024055</v>
+        <v>0.08358874460620735</v>
       </c>
       <c r="C12" t="n">
-        <v>6.180366867342282e-15</v>
+        <v>1.437927324831037e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3734971431779525</v>
+        <v>-1.703550751855345</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006976720747033266</v>
+        <v>2.121039512238966e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.606623782010904e-05</v>
+        <v>-0.007224394330151125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02318073959740797</v>
+        <v>0.047902797638387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.22243896558023e-08</v>
+        <v>-0.003127886755718189</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2069613351681224</v>
+        <v>0.1772324925900155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00362619594757807</v>
+        <v>0.3878864042624534</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8900054145039824</v>
+        <v>0.2360575297038919</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08002904555611938</v>
+        <v>-1.062597387659323e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.647339176433255e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.450029700265429</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.955983717453475e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.009579337661198185</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01718942846389884</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.003563149254051496</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1305034478795613</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4944034202573483</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1900594408625794</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.391279789662198</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2402733801565432</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-4.801775428471377e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2544384490599971</v>
+        <v>0.7930127618634558</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,283 +2174,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8530247539117045</v>
+        <v>-0.9592036459005312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5545555160614958</v>
+        <v>0.02384264813351771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.369250130540844</v>
+        <v>0.3596969475454296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3198848776135896</v>
+        <v>6.676961180807638e-23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.45124287252069</v>
+        <v>0.0005736862160407607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2944053640660875</v>
+        <v>1.969913149760879e-84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1645504508401426</v>
+        <v>0.01036514247036357</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9049924881067809</v>
+        <v>6.160585386736331e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4647862923837601</v>
+        <v>-0.1012461373418741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.736098849622179</v>
+        <v>0.1437652603119983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6720301251852188</v>
+        <v>0.7410921057133203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.62730236687522</v>
+        <v>1.408587670539827e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04620279817799726</v>
+        <v>0.3006724210735209</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5122439569122754</v>
+        <v>0.02504034122688004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004956850073465545</v>
+        <v>-4.594741019452226e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0596228932183e-60</v>
+        <v>0.0002085494863093569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007748113854034093</v>
+        <v>-1.763608789267882e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00416946267113938</v>
+        <v>0.2923565384702189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.104564249682265</v>
+        <v>0.007156694198752672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1415246124301776</v>
+        <v>0.7799409101700902</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8579718666514431</v>
+        <v>0.09542468917088234</v>
       </c>
       <c r="C12" t="n">
-        <v>8.944927733851652e-16</v>
+        <v>4.83113421984746e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3457280920786075</v>
+        <v>-1.563620703599436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01247682276045673</v>
+        <v>2.36634993972459e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.710194644822501e-05</v>
+        <v>-0.008228673379211239</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002754164400353564</v>
+        <v>0.02478100391046264</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.269967796429303e-08</v>
+        <v>-0.00480483499884248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4696622496237451</v>
+        <v>0.03862498823836951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01450660825951389</v>
+        <v>0.2773999228406548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5773308334212861</v>
+        <v>0.3948466917605326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09145198182334004</v>
+        <v>-5.733975191248615e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.649533582626458e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.330895379815283</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.854292187808689e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01088738615354414</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.007215543527553559</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.005141532046616113</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02927347057168037</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4918606030171156</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.190565648212128</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.2683915649691783</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4182135670198543</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-4.427913214574317e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2898678603246434</v>
+        <v>0.8868332348591448</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,283 +2418,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.86790116907612</v>
+        <v>-1.117341191578546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9985386603058617</v>
+        <v>0.008247499004682274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.29716694480782</v>
+        <v>0.3876059385510881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.99850355252182</v>
+        <v>1.145478598266964e-25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.4003834486394</v>
+        <v>0.0005826367110541894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984951108930388</v>
+        <v>3.801850806524174e-84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.03897467810313</v>
+        <v>0.01026104846661024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9986064546085558</v>
+        <v>6.780331005477805e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.30874840815246</v>
+        <v>-0.1399797013034362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985843909836055</v>
+        <v>0.0435841976802948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.57683804204468</v>
+        <v>0.713774377053141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985624650947573</v>
+        <v>9.58885557691019e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05144748503329542</v>
+        <v>0.3263261089231833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4710595007245709</v>
+        <v>0.01449913106184825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005031108368384988</v>
+        <v>-4.610556898249475e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.342516084574761e-60</v>
+        <v>0.0001937089209464341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007223543038690517</v>
+        <v>-2.359663168018962e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007493801698831676</v>
+        <v>0.1584528209050803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1543269503253776</v>
+        <v>-0.01347498354528047</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03057405202090352</v>
+        <v>0.5985379848811225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8352443239563219</v>
+        <v>0.09252730812169919</v>
       </c>
       <c r="C12" t="n">
-        <v>5.994344280378969e-15</v>
+        <v>1.063338284377346e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3765864161850652</v>
+        <v>-1.514584805179598</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006362562548821191</v>
+        <v>5.97589601722309e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.813994496403842e-05</v>
+        <v>-0.004994417343240346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00241073283820844</v>
+        <v>0.1756554439260906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.90948043723708e-08</v>
+        <v>-0.004052416098400374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2771240928766528</v>
+        <v>0.07985368705009621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.004614739446561674</v>
+        <v>0.1908047033079313</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8593959896478049</v>
+        <v>0.5564816718009244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09112734386154764</v>
+        <v>-1.020546747174687e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>2.711434235355199e-07</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.265649626003499</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.346363268810995e-05</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.006899393013003874</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.09042880402994516</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.004280343559205098</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0684868636626898</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.454486873528924</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2317746999118329</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.182232273754824</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5812060189964758</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-4.582530071354868e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.274212832601067</v>
+        <v>0.8001353635781648</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Germany_other.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Germany_other.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.189457642436835</v>
+        <v>-1.184556188243356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005178765971861628</v>
+        <v>0.005389908126320712</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4081881353682078</v>
+        <v>0.4080755109920324</v>
       </c>
       <c r="C3" t="n">
-        <v>6.425889546933621e-28</v>
+        <v>6.600163994966182e-28</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005718511325758439</v>
+        <v>0.0005719180151426429</v>
       </c>
       <c r="C4" t="n">
-        <v>2.433319062007976e-83</v>
+        <v>2.245929642807883e-83</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01013026627933839</v>
+        <v>0.01014656535694808</v>
       </c>
       <c r="C5" t="n">
-        <v>8.552905133659871e-05</v>
+        <v>8.323918759869402e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.118616107441059</v>
+        <v>-0.1185905336377064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08550165072736125</v>
+        <v>0.08557489419196317</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6993350189647509</v>
+        <v>0.6991632581407369</v>
       </c>
       <c r="C7" t="n">
-        <v>2.709996881978982e-11</v>
+        <v>2.740802331379703e-11</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.283010103866544</v>
+        <v>0.2823197519911048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03494932816831364</v>
+        <v>0.03540598469354297</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.706701991527395e-05</v>
+        <v>-0.004767233847604941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001298259564051521</v>
+        <v>0.0001020656525659106</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.070676737510044e-08</v>
+        <v>-0.02160963082391781</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2173050641140849</v>
+        <v>0.1953339126722848</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.004535455700292061</v>
+        <v>-0.005511732251742159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.859627018045658</v>
+        <v>0.8297483643053369</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08546273067501774</v>
+        <v>0.08641837418973029</v>
       </c>
       <c r="C12" t="n">
-        <v>8.657869528188019e-07</v>
+        <v>8.683835102118979e-07</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.882449976213548</v>
+        <v>-0.01889109159037188</v>
       </c>
       <c r="C13" t="n">
-        <v>3.953287591341801e-10</v>
+        <v>3.679827272813961e-10</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.005199868035828112</v>
+        <v>-0.005357027399933394</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1573045052941652</v>
+        <v>0.1455596305460372</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002932836881312717</v>
+        <v>-0.002941162610891519</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208271282026937</v>
+        <v>0.2071812798262934</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.07041659298193553</v>
+        <v>-0.0008028332385748995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8270839835175141</v>
+        <v>0.8037607379823454</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.916657353681656e-06</v>
+        <v>0.0009888068730972838</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8255134201629999</v>
+        <v>0.710676824830311</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.243181317284147</v>
+        <v>-1.237451661522614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003295611386566451</v>
+        <v>0.003463451891670079</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3781146556533798</v>
+        <v>0.3779328848260049</v>
       </c>
       <c r="C3" t="n">
-        <v>5.674624920021393e-25</v>
+        <v>5.917161163642848e-25</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005676396781771392</v>
+        <v>0.0005678479758382489</v>
       </c>
       <c r="C4" t="n">
-        <v>2.53207053680781e-83</v>
+        <v>2.127069021187591e-83</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0115675472398377</v>
+        <v>0.01159105720632076</v>
       </c>
       <c r="C5" t="n">
-        <v>7.66191987654922e-06</v>
+        <v>7.331739501517895e-06</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1440866384708645</v>
+        <v>-0.143907407461695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03707836329735201</v>
+        <v>0.03731617882370106</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.729652992884237</v>
+        <v>0.7294735926169781</v>
       </c>
       <c r="C7" t="n">
-        <v>3.986475067734112e-12</v>
+        <v>4.028076123597406e-12</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2218123354927429</v>
+        <v>0.2210631281491096</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09771459881277608</v>
+        <v>0.09885052542279353</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.55169477573193e-05</v>
+        <v>-0.004635658016066186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002143741410268786</v>
+        <v>0.0001581182390377213</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.033489307176935e-08</v>
+        <v>-0.01163282291525943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5325934947673436</v>
+        <v>0.479673700875199</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02462917261292323</v>
+        <v>0.02331157031340858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3371955680664818</v>
+        <v>0.3633274231289024</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08769388215121146</v>
+        <v>0.08853714059602173</v>
       </c>
       <c r="C12" t="n">
-        <v>4.644770381004217e-07</v>
+        <v>4.862708408166164e-07</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.622492589110256</v>
+        <v>-0.01628400513401423</v>
       </c>
       <c r="C13" t="n">
-        <v>6.661430775307584e-08</v>
+        <v>6.293877705315257e-08</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.005313975824712691</v>
+        <v>-0.005511922606292007</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1454386283315835</v>
+        <v>0.1314834974722918</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003621736746488769</v>
+        <v>-0.003622983408609838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1167504843170969</v>
+        <v>0.1168129569948874</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01851744623195833</v>
+        <v>-0.0002913540771850964</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9537973748263213</v>
+        <v>0.9275385255027204</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.173681782229251e-05</v>
+        <v>-0.0002581889241646387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7700868039795736</v>
+        <v>0.9223055877626799</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.081481651674822</v>
+        <v>-1.076849326774291</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01040926222223234</v>
+        <v>0.01078512454664313</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.383929934678751</v>
+        <v>0.3838209349401738</v>
       </c>
       <c r="C3" t="n">
-        <v>1.993763989496923e-25</v>
+        <v>2.041732642427773e-25</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005634703346159029</v>
+        <v>0.0005636134504224177</v>
       </c>
       <c r="C4" t="n">
-        <v>1.014542181645201e-81</v>
+        <v>9.006364058839051e-82</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01101466904196123</v>
+        <v>0.0110373384684915</v>
       </c>
       <c r="C5" t="n">
-        <v>1.951770632369019e-05</v>
+        <v>1.874652520644865e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1492024645338042</v>
+        <v>-0.1490719795637184</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03094168974549004</v>
+        <v>0.03109063520205351</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7134064817481861</v>
+        <v>0.7132507898540678</v>
       </c>
       <c r="C7" t="n">
-        <v>6.74359709510825e-12</v>
+        <v>6.813124549365924e-12</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2554920944024894</v>
+        <v>0.2546781628682235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05410072993900009</v>
+        <v>0.05487448210046009</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.723258586089516e-05</v>
+        <v>-0.003797821836180314</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002530992033006049</v>
+        <v>0.002019242189415106</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.961167532306969e-08</v>
+        <v>-0.02076648055751338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2355906465703185</v>
+        <v>0.2063382675015135</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003616982861179017</v>
+        <v>0.002489078677509171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8879603094902435</v>
+        <v>0.9227297322454103</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07934540545342712</v>
+        <v>0.0799914424444933</v>
       </c>
       <c r="C12" t="n">
-        <v>4.295771440716582e-06</v>
+        <v>4.533152821489707e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.876868232415097</v>
+        <v>-0.01880980499886281</v>
       </c>
       <c r="C13" t="n">
-        <v>6.163066395588093e-10</v>
+        <v>6.019667523998259e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.006847715041186028</v>
+        <v>-0.007016748499292303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06042903179537057</v>
+        <v>0.05455369828678408</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003265724285364552</v>
+        <v>-0.003264339302974264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1575232890365601</v>
+        <v>0.157866853716897</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1129982633840141</v>
+        <v>0.001046479800014596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7264258182322993</v>
+        <v>0.7464887501044231</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.518366202610685e-05</v>
+        <v>-0.0005531770534762731</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7048325907763833</v>
+        <v>0.8338110516357938</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.400047697900565</v>
+        <v>-1.39536267431336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001049957617012475</v>
+        <v>0.001098952217994208</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.38319870939848</v>
+        <v>0.3830562567354663</v>
       </c>
       <c r="C3" t="n">
-        <v>3.018701550982934e-25</v>
+        <v>3.116530136561743e-25</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005909377153292105</v>
+        <v>0.0005911379609024977</v>
       </c>
       <c r="C4" t="n">
-        <v>5.137004350967451e-87</v>
+        <v>4.358371459524054e-87</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01160298879628772</v>
+        <v>0.01163217142555229</v>
       </c>
       <c r="C5" t="n">
-        <v>7.767930929477828e-06</v>
+        <v>7.348352789272469e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1420768548764721</v>
+        <v>-0.1418558263675826</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04148032907775053</v>
+        <v>0.04179708086375457</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6740873911575475</v>
+        <v>0.6738850067627244</v>
       </c>
       <c r="C7" t="n">
-        <v>1.877957095004165e-10</v>
+        <v>1.899081012272666e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2441234550186845</v>
+        <v>0.2430352151969143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07094557145148198</v>
+        <v>0.07220417020495702</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.702990413149298e-05</v>
+        <v>-0.004785559526446175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001500369061066413</v>
+        <v>0.0001103105637437534</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-7.287168102221621e-09</v>
+        <v>-0.008645931327202237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6652469037933437</v>
+        <v>0.605482184343306</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.002978706050159055</v>
+        <v>-0.004228900821354223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9077233939440144</v>
+        <v>0.8692296726165786</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08258957336187261</v>
+        <v>0.08306812916130171</v>
       </c>
       <c r="C12" t="n">
-        <v>1.916808002103747e-06</v>
+        <v>2.148430457614583e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.680705841116057</v>
+        <v>-0.01683938167681378</v>
       </c>
       <c r="C13" t="n">
-        <v>3.932560352262387e-08</v>
+        <v>3.892422803339293e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.003991543280168987</v>
+        <v>-0.004175336862313567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2809623347188246</v>
+        <v>0.2598331086994665</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001941558215381552</v>
+        <v>-0.001934704366591855</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4065860948712346</v>
+        <v>0.4084166368108441</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05788608502973078</v>
+        <v>0.0005042136803975921</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8580759432769687</v>
+        <v>0.876513112635907</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.94232165007292e-05</v>
+        <v>-0.001449082983079347</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4683148022198007</v>
+        <v>0.5874873505538338</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.507198269633413</v>
+        <v>-1.503630772523269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003841575551400792</v>
+        <v>0.0003996029091339745</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3822746461660533</v>
+        <v>0.3820692952096714</v>
       </c>
       <c r="C3" t="n">
-        <v>3.145264046239461e-25</v>
+        <v>3.278550925744898e-25</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005779233374317767</v>
+        <v>0.0005781482813196512</v>
       </c>
       <c r="C4" t="n">
-        <v>3.347827186628073e-86</v>
+        <v>2.791855646079879e-86</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0108157417764467</v>
+        <v>0.01084506572629872</v>
       </c>
       <c r="C5" t="n">
-        <v>2.769118856012623e-05</v>
+        <v>2.627898057958828e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1373731870467197</v>
+        <v>-0.1370515264663602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0465871005904217</v>
+        <v>0.04709860315141934</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6512585530039953</v>
+        <v>0.6511537966169232</v>
       </c>
       <c r="C7" t="n">
-        <v>6.259365284984997e-10</v>
+        <v>6.292246772191691e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.218318760220738</v>
+        <v>0.2174199399524264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1037964420862558</v>
+        <v>0.1052246472576249</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.938111218724247e-05</v>
+        <v>-0.004023208789176269</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001422093510749598</v>
+        <v>0.001089676026714003</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.399967375561279e-09</v>
+        <v>-0.01080470224797189</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5746019226524733</v>
+        <v>0.5163407226890071</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01425459329283082</v>
+        <v>0.01300408986649876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5771044224616479</v>
+        <v>0.6107919974874332</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08945597693848178</v>
+        <v>0.08981322005351729</v>
       </c>
       <c r="C12" t="n">
-        <v>2.48113389034563e-07</v>
+        <v>2.974623408879929e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.873976026547502</v>
+        <v>-0.01875465048190323</v>
       </c>
       <c r="C13" t="n">
-        <v>3.867827549900928e-10</v>
+        <v>3.979284487996827e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.002394650869552505</v>
+        <v>-0.002576616374302908</v>
       </c>
       <c r="C14" t="n">
-        <v>0.513740447391251</v>
+        <v>0.4826637091485344</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001695723142797581</v>
+        <v>-0.001679113638887892</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4656464239331911</v>
+        <v>0.4701452598590514</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1645661699857905</v>
+        <v>0.001578128875309966</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6100368328743295</v>
+        <v>0.6256291325904875</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.901964183389156e-05</v>
+        <v>-0.002080982378817788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3288973008888375</v>
+        <v>0.4290444335310327</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.205279371596611</v>
+        <v>-1.203090286171469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004596298641091014</v>
+        <v>0.004686459679462911</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4243185984934427</v>
+        <v>0.4241622783802238</v>
       </c>
       <c r="C3" t="n">
-        <v>3.752867071165927e-30</v>
+        <v>3.87993218261986e-30</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005599318733034583</v>
+        <v>0.0005601458086122351</v>
       </c>
       <c r="C4" t="n">
-        <v>4.055689048979729e-81</v>
+        <v>3.4413134760603e-81</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009395092513095792</v>
+        <v>0.009419997246899074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003124210705093207</v>
+        <v>0.0003008327784361115</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1975441571079988</v>
+        <v>-0.1972922967087159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004537794217930596</v>
+        <v>0.004589137109421944</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7407667124908298</v>
+        <v>0.7407438633867558</v>
       </c>
       <c r="C7" t="n">
-        <v>1.703210330301589e-12</v>
+        <v>1.701183070886455e-12</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.334358998687181</v>
+        <v>0.3337122704354145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01310293906290267</v>
+        <v>0.01327907381588272</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.445075670209244e-05</v>
+        <v>-0.004512665676679545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002673743584668092</v>
+        <v>0.0002093244060182706</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.323187869935389e-08</v>
+        <v>-0.0145042897017333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4275414068934121</v>
+        <v>0.3813272834057158</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0103126932138489</v>
+        <v>0.009284807096317299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6889905395940479</v>
+        <v>0.7184318439331816</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0806037016756951</v>
+        <v>0.08046845311895109</v>
       </c>
       <c r="C12" t="n">
-        <v>3.305649708757369e-06</v>
+        <v>4.3630219672947e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.681841089751917</v>
+        <v>-0.0168151964117928</v>
       </c>
       <c r="C13" t="n">
-        <v>4.229192676944846e-08</v>
+        <v>4.460987998491047e-08</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00387628769699468</v>
+        <v>-0.00400696494062234</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2889406306675927</v>
+        <v>0.2734310654685081</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002661431478011703</v>
+        <v>-0.002638305413286421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2552542307955717</v>
+        <v>0.2594420773698582</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02870755883782725</v>
+        <v>0.0002659611122947042</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9292798203002106</v>
+        <v>0.9346223345704783</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.380035259937927e-05</v>
+        <v>-0.003167099660552071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1808295834829335</v>
+        <v>0.2317368206233013</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.183984377682875</v>
+        <v>-1.179861665211938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005114725806839045</v>
+        <v>0.005297458365729799</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4037264802416815</v>
+        <v>0.4035706604049484</v>
       </c>
       <c r="C3" t="n">
-        <v>1.728616954349159e-27</v>
+        <v>1.789923126914807e-27</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005701201616142766</v>
+        <v>0.0005702516887925135</v>
       </c>
       <c r="C4" t="n">
-        <v>3.99983458733251e-83</v>
+        <v>3.5199549697502e-83</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01049091093034408</v>
+        <v>0.01051531918763964</v>
       </c>
       <c r="C5" t="n">
-        <v>4.483630990268634e-05</v>
+        <v>4.294230877337724e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1294681412239166</v>
+        <v>-0.1292884934889515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06190914461806199</v>
+        <v>0.0622702626105202</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7149005371322433</v>
+        <v>0.7147039240352292</v>
       </c>
       <c r="C7" t="n">
-        <v>8.890540338797103e-12</v>
+        <v>9.008873804869867e-12</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3056458013233855</v>
+        <v>0.3047823227707104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02218807970888671</v>
+        <v>0.02256924729343711</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.412922277835104e-05</v>
+        <v>-0.003482970736031783</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005680653648523856</v>
+        <v>0.004660417054348179</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.886612870078296e-08</v>
+        <v>-0.02994048005702407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08405302621498988</v>
+        <v>0.07135622886969925</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.006660054039388738</v>
+        <v>-0.007760050386765312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7959591911584627</v>
+        <v>0.7630639882939816</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08358874460620735</v>
+        <v>0.08426921957956424</v>
       </c>
       <c r="C12" t="n">
-        <v>1.437927324831037e-06</v>
+        <v>1.554779071421368e-06</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.703550751855345</v>
+        <v>-0.01707970074294769</v>
       </c>
       <c r="C13" t="n">
-        <v>2.121039512238966e-08</v>
+        <v>2.065585224201052e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.007224394330151125</v>
+        <v>-0.00738253858868352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.047902797638387</v>
+        <v>0.04344642227271875</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003127886755718189</v>
+        <v>-0.003126186064404631</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1772324925900155</v>
+        <v>0.1776230060268209</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3878864042624534</v>
+        <v>0.003795217014322891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2360575297038919</v>
+        <v>0.247370178006003</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.062597387659323e-05</v>
+        <v>-0.0002749466465385806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7930127618634558</v>
+        <v>0.9178444702728503</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9592036459005312</v>
+        <v>-0.9520191444620728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02384264813351771</v>
+        <v>0.02501559727167189</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3596969475454296</v>
+        <v>0.3595095704812826</v>
       </c>
       <c r="C3" t="n">
-        <v>6.676961180807638e-23</v>
+        <v>6.955349878405647e-23</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005736862160407607</v>
+        <v>0.0005738020267628167</v>
       </c>
       <c r="C4" t="n">
-        <v>1.969913149760879e-84</v>
+        <v>1.784764488328395e-84</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01036514247036357</v>
+        <v>0.01039753850170611</v>
       </c>
       <c r="C5" t="n">
-        <v>6.160585386736331e-05</v>
+        <v>5.834692068866535e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1012461373418741</v>
+        <v>-0.1009665681627155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1437652603119983</v>
+        <v>0.1448790892747345</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7410921057133203</v>
+        <v>0.7408253280169556</v>
       </c>
       <c r="C7" t="n">
-        <v>1.408587670539827e-12</v>
+        <v>1.433663760547352e-12</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3006724210735209</v>
+        <v>0.2995153473163664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02504034122688004</v>
+        <v>0.02560563001032976</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.594741019452226e-05</v>
+        <v>-0.00469709282970089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002085494863093569</v>
+        <v>0.0001442555383629857</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.763608789267882e-08</v>
+        <v>-0.01912755677368665</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2923565384702189</v>
+        <v>0.2506426310324684</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007156694198752672</v>
+        <v>0.005641628557784431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7799409101700902</v>
+        <v>0.8255793739700794</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09542468917088234</v>
+        <v>0.09659530854809657</v>
       </c>
       <c r="C12" t="n">
-        <v>4.83113421984746e-08</v>
+        <v>4.669617536612085e-08</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.563620703599436</v>
+        <v>-0.01571121925224732</v>
       </c>
       <c r="C13" t="n">
-        <v>2.36634993972459e-07</v>
+        <v>2.174069552610032e-07</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.008228673379211239</v>
+        <v>-0.008467651156791756</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02478100391046264</v>
+        <v>0.02106152356344521</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.00480483499884248</v>
+        <v>-0.004812549850266462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03862498823836951</v>
+        <v>0.03843784007526732</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2773999228406548</v>
+        <v>0.002635923018341613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3948466917605326</v>
+        <v>0.4198897527588639</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.733975191248615e-06</v>
+        <v>0.0002442787709191214</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8868332348591448</v>
+        <v>0.9266872037598887</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.117341191578546</v>
+        <v>-1.112013926385579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008247499004682274</v>
+        <v>0.008597954446752933</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3876059385510881</v>
+        <v>0.3874795814533074</v>
       </c>
       <c r="C3" t="n">
-        <v>1.145478598266964e-25</v>
+        <v>1.177897651902874e-25</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005826367110541894</v>
+        <v>0.0005827374616809841</v>
       </c>
       <c r="C4" t="n">
-        <v>3.801850806524174e-84</v>
+        <v>3.48399335710622e-84</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01026104846661024</v>
+        <v>0.01028297863270404</v>
       </c>
       <c r="C5" t="n">
-        <v>6.780331005477805e-05</v>
+        <v>6.536196659134665e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1399797013034362</v>
+        <v>-0.1398437788363169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0435841976802948</v>
+        <v>0.04378956702928542</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.713774377053141</v>
+        <v>0.7135415649612729</v>
       </c>
       <c r="C7" t="n">
-        <v>9.58885557691019e-12</v>
+        <v>9.741161800082882e-12</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3263261089231833</v>
+        <v>0.3255603435236335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01449913106184825</v>
+        <v>0.01473545895790931</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.610556898249475e-05</v>
+        <v>-0.004683162320337254</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001937089209464341</v>
+        <v>0.0001479562993750329</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.359663168018962e-08</v>
+        <v>-0.02475028461728611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1584528209050803</v>
+        <v>0.1366330768736542</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01347498354528047</v>
+        <v>-0.01461907422253006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5985379848811225</v>
+        <v>0.5676875972086517</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09252730812169919</v>
+        <v>0.09325754978011654</v>
       </c>
       <c r="C12" t="n">
-        <v>1.063338284377346e-07</v>
+        <v>1.158189516861555e-07</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.514584805179598</v>
+        <v>-0.01519640116920009</v>
       </c>
       <c r="C13" t="n">
-        <v>5.97589601722309e-07</v>
+        <v>5.722419658805626e-07</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.004994417343240346</v>
+        <v>-0.00517149763870176</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1756554439260906</v>
+        <v>0.16119553190876</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.004052416098400374</v>
+        <v>-0.004054191653994136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07985368705009621</v>
+        <v>0.07985434576618694</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1908047033079313</v>
+        <v>0.001816368770170221</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5564816718009244</v>
+        <v>0.576531940442931</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.020546747174687e-05</v>
+        <v>-0.0002183582997830146</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8001353635781648</v>
+        <v>0.9344211855100989</v>
       </c>
     </row>
   </sheetData>
